--- a/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/valid/BEFTA_Master_Defninition.xlsx
+++ b/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/valid/BEFTA_Master_Defninition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/veeresha/hmcts/git/befta-fw/src/main/resources/uk/gov/hmcts/befta/dse/ccd/definitions/valid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDDB8E9-DD13-7146-A731-6DAA744981EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFC9903-8B98-4D40-B9E6-3722471106D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jurisdiction" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5166" uniqueCount="905">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5158" uniqueCount="903">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -2551,12 +2551,6 @@
   </si>
   <si>
     <t>master.solicitor.1@gmail.com</t>
-  </si>
-  <si>
-    <t>master.solicitor.2@gmail.com</t>
-  </si>
-  <si>
-    <t>master.solicitor.3@gmail.com</t>
   </si>
   <si>
     <t>DateTime Fomratting</t>
@@ -11440,7 +11434,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F7" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{68D1BADF-97D2-B54C-B71F-46D015D9E181}" name="Table17" displayName="Table17" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{7E998E97-505C-684E-9311-941AC17D5757}" name="LiveFrom" dataDxfId="53"/>
     <tableColumn id="2" xr3:uid="{374279D4-23E7-9049-A9CB-C1788CC30194}" name="LiveTo" dataDxfId="52"/>
@@ -12959,7 +12953,7 @@
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>475</v>
@@ -12989,7 +12983,7 @@
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>475</v>
@@ -13019,7 +13013,7 @@
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>475</v>
@@ -14477,16 +14471,16 @@
       </c>
       <c r="B54" s="321"/>
       <c r="C54" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D54" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E54" s="315" t="s">
+        <v>844</v>
+      </c>
+      <c r="F54" s="322" t="s">
         <v>845</v>
-      </c>
-      <c r="E54" s="315" t="s">
-        <v>846</v>
-      </c>
-      <c r="F54" s="322" t="s">
-        <v>847</v>
       </c>
       <c r="G54" s="17">
         <v>1</v>
@@ -14500,7 +14494,7 @@
       <c r="J54" s="321"/>
       <c r="K54" s="17"/>
       <c r="L54" s="17" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="M54" s="17"/>
       <c r="N54" s="17"/>
@@ -14516,22 +14510,22 @@
       </c>
       <c r="B55" s="321"/>
       <c r="C55" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D55" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E55" s="315" t="s">
+        <v>844</v>
+      </c>
+      <c r="F55" s="322" t="s">
         <v>845</v>
-      </c>
-      <c r="E55" s="315" t="s">
-        <v>846</v>
-      </c>
-      <c r="F55" s="322" t="s">
-        <v>847</v>
       </c>
       <c r="G55" s="17">
         <v>1</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I55" s="17">
         <v>2</v>
@@ -14539,7 +14533,7 @@
       <c r="J55" s="321"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="M55" s="17"/>
       <c r="N55" s="17"/>
@@ -14555,22 +14549,22 @@
       </c>
       <c r="B56" s="321"/>
       <c r="C56" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D56" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E56" s="315" t="s">
+        <v>844</v>
+      </c>
+      <c r="F56" s="322" t="s">
         <v>845</v>
-      </c>
-      <c r="E56" s="315" t="s">
-        <v>846</v>
-      </c>
-      <c r="F56" s="322" t="s">
-        <v>847</v>
       </c>
       <c r="G56" s="17">
         <v>1</v>
       </c>
       <c r="H56" s="315" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="I56" s="17">
         <v>3</v>
@@ -14592,22 +14586,22 @@
       </c>
       <c r="B57" s="321"/>
       <c r="C57" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D57" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E57" s="315" t="s">
+        <v>844</v>
+      </c>
+      <c r="F57" s="322" t="s">
         <v>845</v>
-      </c>
-      <c r="E57" s="315" t="s">
-        <v>846</v>
-      </c>
-      <c r="F57" s="322" t="s">
-        <v>847</v>
       </c>
       <c r="G57" s="17">
         <v>1</v>
       </c>
       <c r="H57" s="315" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="I57" s="17">
         <v>4</v>
@@ -14629,22 +14623,22 @@
       </c>
       <c r="B58" s="321"/>
       <c r="C58" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D58" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E58" s="315" t="s">
+        <v>844</v>
+      </c>
+      <c r="F58" s="322" t="s">
         <v>845</v>
-      </c>
-      <c r="E58" s="315" t="s">
-        <v>846</v>
-      </c>
-      <c r="F58" s="322" t="s">
-        <v>847</v>
       </c>
       <c r="G58" s="17">
         <v>1</v>
       </c>
       <c r="H58" s="315" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I58" s="17">
         <v>5</v>
@@ -14652,7 +14646,7 @@
       <c r="J58" s="321"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="M58" s="17"/>
       <c r="N58" s="17"/>
@@ -14668,22 +14662,22 @@
       </c>
       <c r="B59" s="321"/>
       <c r="C59" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D59" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E59" s="315" t="s">
+        <v>844</v>
+      </c>
+      <c r="F59" s="322" t="s">
         <v>845</v>
-      </c>
-      <c r="E59" s="315" t="s">
-        <v>846</v>
-      </c>
-      <c r="F59" s="322" t="s">
-        <v>847</v>
       </c>
       <c r="G59" s="17">
         <v>1</v>
       </c>
       <c r="H59" s="315" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I59" s="17">
         <v>6</v>
@@ -14691,7 +14685,7 @@
       <c r="J59" s="321"/>
       <c r="K59" s="17"/>
       <c r="L59" s="17" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="M59" s="17"/>
       <c r="N59" s="17"/>
@@ -14707,22 +14701,22 @@
       </c>
       <c r="B60" s="321"/>
       <c r="C60" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D60" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E60" s="315" t="s">
+        <v>844</v>
+      </c>
+      <c r="F60" s="322" t="s">
         <v>845</v>
-      </c>
-      <c r="E60" s="315" t="s">
-        <v>846</v>
-      </c>
-      <c r="F60" s="322" t="s">
-        <v>847</v>
       </c>
       <c r="G60" s="17">
         <v>1</v>
       </c>
       <c r="H60" s="315" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="I60" s="17">
         <v>7</v>
@@ -14744,22 +14738,22 @@
       </c>
       <c r="B61" s="321"/>
       <c r="C61" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D61" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="E61" s="315" t="s">
+        <v>844</v>
+      </c>
+      <c r="F61" s="322" t="s">
         <v>845</v>
-      </c>
-      <c r="E61" s="315" t="s">
-        <v>846</v>
-      </c>
-      <c r="F61" s="322" t="s">
-        <v>847</v>
       </c>
       <c r="G61" s="17">
         <v>1</v>
       </c>
       <c r="H61" s="315" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I61" s="17">
         <v>8</v>
@@ -14767,7 +14761,7 @@
       <c r="J61" s="321"/>
       <c r="K61" s="17"/>
       <c r="L61" s="17" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="M61" s="17"/>
       <c r="N61" s="17"/>
@@ -14783,22 +14777,22 @@
       </c>
       <c r="B62" s="321"/>
       <c r="C62" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E62" s="315" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="F62" s="322" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="G62" s="17">
         <v>2</v>
       </c>
       <c r="H62" s="315" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I62" s="17">
         <v>1</v>
@@ -14929,7 +14923,7 @@
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>509</v>
@@ -15349,13 +15343,13 @@
       </c>
       <c r="B25" s="75"/>
       <c r="C25" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D25" s="315" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E25" s="315" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F25" s="17"/>
       <c r="G25" s="17">
@@ -15369,13 +15363,13 @@
       </c>
       <c r="B26" s="75"/>
       <c r="C26" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D26" s="315" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E26" s="315" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17">
@@ -15389,13 +15383,13 @@
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D27" s="315" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E27" s="315" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F27" s="17"/>
       <c r="G27" s="17">
@@ -15613,7 +15607,7 @@
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>412</v>
@@ -16915,13 +16909,13 @@
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D35" s="315" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E35" s="315" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17">
@@ -16929,7 +16923,7 @@
       </c>
       <c r="H35" s="17"/>
       <c r="I35" s="315" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="323"/>
@@ -16938,10 +16932,10 @@
       <c r="N35" s="323"/>
       <c r="O35" s="323"/>
       <c r="P35" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q35" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="R35" s="17"/>
       <c r="S35" s="17"/>
@@ -16953,23 +16947,23 @@
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D36" s="315" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E36" s="315" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17">
         <v>2</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="I36" s="315" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="J36" s="323"/>
       <c r="K36" s="323"/>
@@ -16978,10 +16972,10 @@
       <c r="N36" s="323"/>
       <c r="O36" s="323"/>
       <c r="P36" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q36" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="R36" s="17"/>
       <c r="S36" s="17"/>
@@ -16993,23 +16987,23 @@
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D37" s="315" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E37" s="315" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17">
         <v>3</v>
       </c>
       <c r="H37" s="315" t="s">
+        <v>853</v>
+      </c>
+      <c r="I37" s="315" t="s">
         <v>855</v>
-      </c>
-      <c r="I37" s="315" t="s">
-        <v>857</v>
       </c>
       <c r="J37" s="323"/>
       <c r="K37" s="323"/>
@@ -17018,10 +17012,10 @@
       <c r="N37" s="323"/>
       <c r="O37" s="323"/>
       <c r="P37" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q37" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="R37" s="17"/>
       <c r="S37" s="17"/>
@@ -17033,13 +17027,13 @@
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D38" s="315" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E38" s="315" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17">
@@ -17049,7 +17043,7 @@
         <v>574</v>
       </c>
       <c r="I38" s="315" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="J38" s="323"/>
       <c r="K38" s="323"/>
@@ -17058,10 +17052,10 @@
       <c r="N38" s="323"/>
       <c r="O38" s="323"/>
       <c r="P38" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="Q38" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="R38" s="17"/>
       <c r="S38" s="17"/>
@@ -17254,7 +17248,7 @@
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>412</v>
@@ -17293,7 +17287,7 @@
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>412</v>
@@ -17332,7 +17326,7 @@
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>412</v>
@@ -17371,7 +17365,7 @@
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>412</v>
@@ -17410,7 +17404,7 @@
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>412</v>
@@ -17449,7 +17443,7 @@
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D9" s="76" t="s">
         <v>412</v>
@@ -17488,7 +17482,7 @@
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D10" s="76" t="s">
         <v>412</v>
@@ -17527,7 +17521,7 @@
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D11" s="76" t="s">
         <v>412</v>
@@ -17566,7 +17560,7 @@
       </c>
       <c r="B12" s="81"/>
       <c r="C12" s="82" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D12" s="82" t="s">
         <v>412</v>
@@ -17605,7 +17599,7 @@
       </c>
       <c r="B13" s="143"/>
       <c r="C13" s="144" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D13" s="144" t="s">
         <v>412</v>
@@ -17644,7 +17638,7 @@
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>412</v>
@@ -17683,7 +17677,7 @@
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>412</v>
@@ -17722,7 +17716,7 @@
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>412</v>
@@ -17761,7 +17755,7 @@
       </c>
       <c r="B17" s="75"/>
       <c r="C17" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D17" s="76" t="s">
         <v>412</v>
@@ -17800,7 +17794,7 @@
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>412</v>
@@ -17839,7 +17833,7 @@
       </c>
       <c r="B19" s="81"/>
       <c r="C19" s="82" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D19" s="82" t="s">
         <v>412</v>
@@ -21836,10 +21830,10 @@
       </c>
       <c r="B120" s="75"/>
       <c r="C120" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D120" s="315" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E120" s="17" t="s">
         <v>80</v>
@@ -21851,10 +21845,10 @@
         <v>395</v>
       </c>
       <c r="H120" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I120" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J120" s="97">
         <v>1</v>
@@ -21863,10 +21857,10 @@
       <c r="L120" s="83"/>
       <c r="M120" s="17"/>
       <c r="N120" s="17" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="O120" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P120" s="83"/>
       <c r="Q120" s="17"/>
@@ -21877,13 +21871,13 @@
       </c>
       <c r="B121" s="75"/>
       <c r="C121" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D121" s="315" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E121" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F121" s="17">
         <v>2</v>
@@ -21892,10 +21886,10 @@
         <v>395</v>
       </c>
       <c r="H121" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I121" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J121" s="97">
         <v>1</v>
@@ -21904,10 +21898,10 @@
       <c r="L121" s="83"/>
       <c r="M121" s="17"/>
       <c r="N121" s="17" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="O121" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P121" s="83"/>
       <c r="Q121" s="17"/>
@@ -21918,13 +21912,13 @@
       </c>
       <c r="B122" s="75"/>
       <c r="C122" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D122" s="315" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E122" s="315" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F122" s="17">
         <v>3</v>
@@ -21933,10 +21927,10 @@
         <v>395</v>
       </c>
       <c r="H122" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I122" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J122" s="97">
         <v>1</v>
@@ -21946,7 +21940,7 @@
       <c r="M122" s="17"/>
       <c r="N122" s="17"/>
       <c r="O122" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P122" s="83"/>
       <c r="Q122" s="17"/>
@@ -21957,13 +21951,13 @@
       </c>
       <c r="B123" s="75"/>
       <c r="C123" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D123" s="315" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E123" s="315" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F123" s="17">
         <v>4</v>
@@ -21972,10 +21966,10 @@
         <v>395</v>
       </c>
       <c r="H123" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I123" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J123" s="97">
         <v>1</v>
@@ -21985,7 +21979,7 @@
       <c r="M123" s="17"/>
       <c r="N123" s="17"/>
       <c r="O123" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P123" s="83"/>
       <c r="Q123" s="17"/>
@@ -21996,13 +21990,13 @@
       </c>
       <c r="B124" s="75"/>
       <c r="C124" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D124" s="315" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E124" s="315" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F124" s="17">
         <v>5</v>
@@ -22011,10 +22005,10 @@
         <v>395</v>
       </c>
       <c r="H124" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I124" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J124" s="97">
         <v>1</v>
@@ -22023,10 +22017,10 @@
       <c r="L124" s="83"/>
       <c r="M124" s="17"/>
       <c r="N124" s="17" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="O124" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P124" s="83"/>
       <c r="Q124" s="17"/>
@@ -22037,13 +22031,13 @@
       </c>
       <c r="B125" s="75"/>
       <c r="C125" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D125" s="315" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E125" s="315" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F125" s="17">
         <v>6</v>
@@ -22052,10 +22046,10 @@
         <v>395</v>
       </c>
       <c r="H125" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I125" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J125" s="97">
         <v>1</v>
@@ -22064,10 +22058,10 @@
       <c r="L125" s="83"/>
       <c r="M125" s="17"/>
       <c r="N125" s="17" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="O125" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P125" s="83"/>
       <c r="Q125" s="17"/>
@@ -22078,13 +22072,13 @@
       </c>
       <c r="B126" s="75"/>
       <c r="C126" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D126" s="315" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E126" s="315" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F126" s="17">
         <v>7</v>
@@ -22093,10 +22087,10 @@
         <v>395</v>
       </c>
       <c r="H126" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I126" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J126" s="97">
         <v>1</v>
@@ -22106,7 +22100,7 @@
       <c r="M126" s="17"/>
       <c r="N126" s="17"/>
       <c r="O126" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P126" s="83"/>
       <c r="Q126" s="17"/>
@@ -22117,13 +22111,13 @@
       </c>
       <c r="B127" s="75"/>
       <c r="C127" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D127" s="315" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E127" s="315" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F127" s="17">
         <v>8</v>
@@ -22132,10 +22126,10 @@
         <v>395</v>
       </c>
       <c r="H127" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I127" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J127" s="97">
         <v>1</v>
@@ -22145,7 +22139,7 @@
       <c r="M127" s="17"/>
       <c r="N127" s="17"/>
       <c r="O127" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P127" s="83"/>
       <c r="Q127" s="17"/>
@@ -22156,10 +22150,10 @@
       </c>
       <c r="B128" s="75"/>
       <c r="C128" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D128" s="315" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E128" s="17" t="s">
         <v>80</v>
@@ -22171,10 +22165,10 @@
         <v>395</v>
       </c>
       <c r="H128" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I128" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J128" s="97">
         <v>1</v>
@@ -22183,10 +22177,10 @@
       <c r="L128" s="83"/>
       <c r="M128" s="17"/>
       <c r="N128" s="17" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="O128" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P128" s="83"/>
       <c r="Q128" s="17"/>
@@ -22197,13 +22191,13 @@
       </c>
       <c r="B129" s="75"/>
       <c r="C129" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D129" s="315" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F129" s="17">
         <v>2</v>
@@ -22212,10 +22206,10 @@
         <v>395</v>
       </c>
       <c r="H129" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I129" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J129" s="97">
         <v>1</v>
@@ -22224,10 +22218,10 @@
       <c r="L129" s="83"/>
       <c r="M129" s="17"/>
       <c r="N129" s="17" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="O129" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P129" s="83"/>
       <c r="Q129" s="17"/>
@@ -22238,13 +22232,13 @@
       </c>
       <c r="B130" s="75"/>
       <c r="C130" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D130" s="315" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E130" s="315" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F130" s="17">
         <v>3</v>
@@ -22253,10 +22247,10 @@
         <v>395</v>
       </c>
       <c r="H130" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I130" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J130" s="97">
         <v>1</v>
@@ -22266,7 +22260,7 @@
       <c r="M130" s="17"/>
       <c r="N130" s="17"/>
       <c r="O130" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P130" s="83"/>
       <c r="Q130" s="17"/>
@@ -22277,13 +22271,13 @@
       </c>
       <c r="B131" s="75"/>
       <c r="C131" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D131" s="315" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E131" s="315" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F131" s="17">
         <v>4</v>
@@ -22292,10 +22286,10 @@
         <v>395</v>
       </c>
       <c r="H131" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I131" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J131" s="97">
         <v>1</v>
@@ -22305,7 +22299,7 @@
       <c r="M131" s="17"/>
       <c r="N131" s="17"/>
       <c r="O131" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P131" s="83"/>
       <c r="Q131" s="17"/>
@@ -22316,13 +22310,13 @@
       </c>
       <c r="B132" s="75"/>
       <c r="C132" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D132" s="315" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E132" s="315" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F132" s="17">
         <v>5</v>
@@ -22331,10 +22325,10 @@
         <v>395</v>
       </c>
       <c r="H132" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I132" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J132" s="97">
         <v>1</v>
@@ -22343,10 +22337,10 @@
       <c r="L132" s="83"/>
       <c r="M132" s="17"/>
       <c r="N132" s="17" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="O132" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P132" s="83"/>
       <c r="Q132" s="17"/>
@@ -22357,13 +22351,13 @@
       </c>
       <c r="B133" s="75"/>
       <c r="C133" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D133" s="315" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E133" s="315" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F133" s="17">
         <v>6</v>
@@ -22372,10 +22366,10 @@
         <v>395</v>
       </c>
       <c r="H133" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I133" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J133" s="97">
         <v>1</v>
@@ -22384,10 +22378,10 @@
       <c r="L133" s="83"/>
       <c r="M133" s="17"/>
       <c r="N133" s="17" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="O133" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P133" s="83"/>
       <c r="Q133" s="17"/>
@@ -22398,13 +22392,13 @@
       </c>
       <c r="B134" s="75"/>
       <c r="C134" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D134" s="315" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E134" s="315" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F134" s="17">
         <v>7</v>
@@ -22413,10 +22407,10 @@
         <v>395</v>
       </c>
       <c r="H134" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I134" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J134" s="97">
         <v>1</v>
@@ -22426,7 +22420,7 @@
       <c r="M134" s="17"/>
       <c r="N134" s="17"/>
       <c r="O134" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P134" s="83"/>
       <c r="Q134" s="17"/>
@@ -22437,13 +22431,13 @@
       </c>
       <c r="B135" s="75"/>
       <c r="C135" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D135" s="315" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E135" s="315" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F135" s="17">
         <v>8</v>
@@ -22452,10 +22446,10 @@
         <v>395</v>
       </c>
       <c r="H135" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I135" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J135" s="97">
         <v>1</v>
@@ -22465,7 +22459,7 @@
       <c r="M135" s="17"/>
       <c r="N135" s="17"/>
       <c r="O135" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P135" s="83"/>
       <c r="Q135" s="17"/>
@@ -22476,10 +22470,10 @@
       </c>
       <c r="B136" s="75"/>
       <c r="C136" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D136" s="315" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E136" s="17" t="s">
         <v>80</v>
@@ -22491,10 +22485,10 @@
         <v>409</v>
       </c>
       <c r="H136" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I136" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J136" s="97">
         <v>1</v>
@@ -22503,10 +22497,10 @@
       <c r="L136" s="83"/>
       <c r="M136" s="17"/>
       <c r="N136" s="17" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="O136" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P136" s="83"/>
       <c r="Q136" s="17"/>
@@ -22517,13 +22511,13 @@
       </c>
       <c r="B137" s="75"/>
       <c r="C137" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D137" s="315" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E137" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F137" s="17">
         <v>2</v>
@@ -22532,10 +22526,10 @@
         <v>409</v>
       </c>
       <c r="H137" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I137" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J137" s="97">
         <v>1</v>
@@ -22544,10 +22538,10 @@
       <c r="L137" s="83"/>
       <c r="M137" s="17"/>
       <c r="N137" s="17" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="O137" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P137" s="83"/>
       <c r="Q137" s="17"/>
@@ -22558,13 +22552,13 @@
       </c>
       <c r="B138" s="75"/>
       <c r="C138" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D138" s="315" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E138" s="315" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F138" s="17">
         <v>3</v>
@@ -22573,10 +22567,10 @@
         <v>395</v>
       </c>
       <c r="H138" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I138" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J138" s="97">
         <v>1</v>
@@ -22586,7 +22580,7 @@
       <c r="M138" s="17"/>
       <c r="N138" s="17"/>
       <c r="O138" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P138" s="83"/>
       <c r="Q138" s="17"/>
@@ -22597,13 +22591,13 @@
       </c>
       <c r="B139" s="75"/>
       <c r="C139" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D139" s="315" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E139" s="315" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="F139" s="17">
         <v>4</v>
@@ -22612,10 +22606,10 @@
         <v>395</v>
       </c>
       <c r="H139" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I139" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J139" s="97">
         <v>1</v>
@@ -22625,7 +22619,7 @@
       <c r="M139" s="17"/>
       <c r="N139" s="17"/>
       <c r="O139" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P139" s="83"/>
       <c r="Q139" s="17"/>
@@ -22636,13 +22630,13 @@
       </c>
       <c r="B140" s="75"/>
       <c r="C140" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D140" s="315" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E140" s="315" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="F140" s="17">
         <v>5</v>
@@ -22651,10 +22645,10 @@
         <v>409</v>
       </c>
       <c r="H140" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I140" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J140" s="97">
         <v>1</v>
@@ -22663,10 +22657,10 @@
       <c r="L140" s="83"/>
       <c r="M140" s="17"/>
       <c r="N140" s="17" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="O140" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P140" s="83"/>
       <c r="Q140" s="17"/>
@@ -22677,13 +22671,13 @@
       </c>
       <c r="B141" s="75"/>
       <c r="C141" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D141" s="315" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E141" s="315" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F141" s="17">
         <v>6</v>
@@ -22692,10 +22686,10 @@
         <v>409</v>
       </c>
       <c r="H141" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I141" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J141" s="97">
         <v>1</v>
@@ -22704,10 +22698,10 @@
       <c r="L141" s="83"/>
       <c r="M141" s="17"/>
       <c r="N141" s="17" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="O141" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P141" s="83"/>
       <c r="Q141" s="17"/>
@@ -22718,13 +22712,13 @@
       </c>
       <c r="B142" s="75"/>
       <c r="C142" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D142" s="315" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E142" s="315" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F142" s="17">
         <v>7</v>
@@ -22733,10 +22727,10 @@
         <v>409</v>
       </c>
       <c r="H142" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I142" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J142" s="97">
         <v>1</v>
@@ -22746,7 +22740,7 @@
       <c r="M142" s="17"/>
       <c r="N142" s="17"/>
       <c r="O142" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P142" s="83"/>
       <c r="Q142" s="17"/>
@@ -22757,13 +22751,13 @@
       </c>
       <c r="B143" s="75"/>
       <c r="C143" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D143" s="315" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E143" s="315" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="F143" s="17">
         <v>8</v>
@@ -22772,10 +22766,10 @@
         <v>409</v>
       </c>
       <c r="H143" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I143" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J143" s="97">
         <v>1</v>
@@ -22785,7 +22779,7 @@
       <c r="M143" s="17"/>
       <c r="N143" s="17"/>
       <c r="O143" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P143" s="83"/>
       <c r="Q143" s="17"/>
@@ -22796,10 +22790,10 @@
       </c>
       <c r="B144" s="75"/>
       <c r="C144" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D144" s="315" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E144" s="17" t="s">
         <v>80</v>
@@ -22811,10 +22805,10 @@
         <v>395</v>
       </c>
       <c r="H144" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I144" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J144" s="97">
         <v>1</v>
@@ -22824,7 +22818,7 @@
       <c r="M144" s="17"/>
       <c r="N144" s="17"/>
       <c r="O144" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P144" s="17"/>
       <c r="Q144" s="17"/>
@@ -22835,13 +22829,13 @@
       </c>
       <c r="B145" s="75"/>
       <c r="C145" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D145" s="315" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F145" s="17">
         <v>2</v>
@@ -22850,10 +22844,10 @@
         <v>395</v>
       </c>
       <c r="H145" s="315" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I145" s="315" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="J145" s="103">
         <v>1</v>
@@ -22863,7 +22857,7 @@
       <c r="M145" s="17"/>
       <c r="N145" s="17"/>
       <c r="O145" s="315" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="P145" s="17"/>
       <c r="Q145" s="17"/>
@@ -22974,7 +22968,7 @@
       </c>
       <c r="B4" s="165"/>
       <c r="C4" s="92" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="92" t="s">
         <v>74</v>
@@ -22994,7 +22988,7 @@
       </c>
       <c r="B5" s="168"/>
       <c r="C5" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>77</v>
@@ -23014,7 +23008,7 @@
       </c>
       <c r="B6" s="168"/>
       <c r="C6" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>80</v>
@@ -23034,7 +23028,7 @@
       </c>
       <c r="B7" s="168"/>
       <c r="C7" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>83</v>
@@ -23054,7 +23048,7 @@
       </c>
       <c r="B8" s="168"/>
       <c r="C8" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>86</v>
@@ -23074,7 +23068,7 @@
       </c>
       <c r="B9" s="168"/>
       <c r="C9" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D9" s="76" t="s">
         <v>89</v>
@@ -23094,7 +23088,7 @@
       </c>
       <c r="B10" s="168"/>
       <c r="C10" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D10" s="76" t="s">
         <v>92</v>
@@ -23114,7 +23108,7 @@
       </c>
       <c r="B11" s="168"/>
       <c r="C11" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D11" s="76" t="s">
         <v>98</v>
@@ -23134,7 +23128,7 @@
       </c>
       <c r="B12" s="168"/>
       <c r="C12" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D12" s="76" t="s">
         <v>103</v>
@@ -23154,7 +23148,7 @@
       </c>
       <c r="B13" s="168"/>
       <c r="C13" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>107</v>
@@ -23174,7 +23168,7 @@
       </c>
       <c r="B14" s="168"/>
       <c r="C14" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D14" s="96" t="s">
         <v>110</v>
@@ -23194,7 +23188,7 @@
       </c>
       <c r="B15" s="168"/>
       <c r="C15" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>116</v>
@@ -23214,7 +23208,7 @@
       </c>
       <c r="B16" s="168"/>
       <c r="C16" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>113</v>
@@ -23234,7 +23228,7 @@
       </c>
       <c r="B17" s="168"/>
       <c r="C17" s="169" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D17" s="79" t="s">
         <v>747</v>
@@ -23674,20 +23668,20 @@
       </c>
       <c r="B38" s="165"/>
       <c r="C38" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E38" s="325"/>
       <c r="F38" s="322" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G38" s="322">
         <v>1</v>
       </c>
       <c r="H38" s="92" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23696,20 +23690,20 @@
       </c>
       <c r="B39" s="165"/>
       <c r="C39" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="325"/>
       <c r="F39" s="322" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G39" s="322">
         <v>2</v>
       </c>
       <c r="H39" s="92" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23718,20 +23712,20 @@
       </c>
       <c r="B40" s="165"/>
       <c r="C40" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E40" s="325"/>
       <c r="F40" s="322" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G40" s="322">
         <v>3</v>
       </c>
       <c r="H40" s="92" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23740,14 +23734,14 @@
       </c>
       <c r="B41" s="165"/>
       <c r="C41" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D41" s="315" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E41" s="325"/>
       <c r="F41" s="322" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G41" s="322">
         <v>4</v>
@@ -23760,14 +23754,14 @@
       </c>
       <c r="B42" s="165"/>
       <c r="C42" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D42" s="315" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E42" s="325"/>
       <c r="F42" s="322" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G42" s="322">
         <v>5</v>
@@ -23780,20 +23774,20 @@
       </c>
       <c r="B43" s="165"/>
       <c r="C43" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D43" s="315" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E43" s="325"/>
       <c r="F43" s="322" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G43" s="322">
         <v>6</v>
       </c>
       <c r="H43" s="92" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23802,20 +23796,20 @@
       </c>
       <c r="B44" s="165"/>
       <c r="C44" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D44" s="315" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E44" s="325"/>
       <c r="F44" s="322" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G44" s="322">
         <v>7</v>
       </c>
       <c r="H44" s="92" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -23824,14 +23818,14 @@
       </c>
       <c r="B45" s="165"/>
       <c r="C45" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D45" s="315" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E45" s="325"/>
       <c r="F45" s="322" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G45" s="322">
         <v>8</v>
@@ -23844,16 +23838,16 @@
       </c>
       <c r="B46" s="165"/>
       <c r="C46" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D46" s="315" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E46" s="325" t="s">
         <v>80</v>
       </c>
       <c r="F46" s="322" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G46" s="322">
         <v>9</v>
@@ -23866,16 +23860,16 @@
       </c>
       <c r="B47" s="165"/>
       <c r="C47" s="92" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D47" s="315" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E47" s="325" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F47" s="322" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G47" s="322">
         <v>10</v>
@@ -23981,7 +23975,7 @@
         <v>420</v>
       </c>
       <c r="H3" s="318" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I3" s="318" t="s">
         <v>474</v>
@@ -23993,7 +23987,7 @@
       </c>
       <c r="B4" s="184"/>
       <c r="C4" s="155" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="155" t="s">
         <v>688</v>
@@ -24012,7 +24006,7 @@
       </c>
       <c r="B5" s="184"/>
       <c r="C5" s="155" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="155" t="s">
         <v>74</v>
@@ -24031,7 +24025,7 @@
       </c>
       <c r="B6" s="184"/>
       <c r="C6" s="155" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D6" s="155" t="s">
         <v>747</v>
@@ -24358,7 +24352,7 @@
       </c>
       <c r="B23" s="184"/>
       <c r="C23" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D23" s="155" t="s">
         <v>688</v>
@@ -24379,23 +24373,23 @@
       </c>
       <c r="B24" s="184"/>
       <c r="C24" s="155" t="s">
+        <v>881</v>
+      </c>
+      <c r="D24" s="155" t="s">
+        <v>882</v>
+      </c>
+      <c r="E24" s="185" t="s">
         <v>883</v>
-      </c>
-      <c r="D24" s="155" t="s">
-        <v>884</v>
-      </c>
-      <c r="E24" s="185" t="s">
-        <v>885</v>
       </c>
       <c r="F24" s="328"/>
       <c r="G24" s="188">
         <v>2</v>
       </c>
       <c r="H24" s="322" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I24" s="17" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24404,13 +24398,13 @@
       </c>
       <c r="B25" s="184"/>
       <c r="C25" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D25" s="155" t="s">
         <v>80</v>
       </c>
       <c r="E25" s="185" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F25" s="328"/>
       <c r="G25" s="188">
@@ -24418,7 +24412,7 @@
       </c>
       <c r="H25" s="315"/>
       <c r="I25" s="17" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24427,13 +24421,13 @@
       </c>
       <c r="B26" s="184"/>
       <c r="C26" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D26" s="155" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E26" s="185" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F26" s="328"/>
       <c r="G26" s="188">
@@ -24441,7 +24435,7 @@
       </c>
       <c r="H26" s="17"/>
       <c r="I26" s="17" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24450,13 +24444,13 @@
       </c>
       <c r="B27" s="184"/>
       <c r="C27" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D27" s="155" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E27" s="185" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F27" s="328"/>
       <c r="G27" s="188">
@@ -24471,13 +24465,13 @@
       </c>
       <c r="B28" s="184"/>
       <c r="C28" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D28" s="155" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E28" s="185" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F28" s="328"/>
       <c r="G28" s="188">
@@ -24492,13 +24486,13 @@
       </c>
       <c r="B29" s="184"/>
       <c r="C29" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D29" s="155" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E29" s="185" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F29" s="328"/>
       <c r="G29" s="188">
@@ -24506,7 +24500,7 @@
       </c>
       <c r="H29" s="17"/>
       <c r="I29" s="17" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24515,13 +24509,13 @@
       </c>
       <c r="B30" s="184"/>
       <c r="C30" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D30" s="155" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E30" s="185" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F30" s="328"/>
       <c r="G30" s="188">
@@ -24529,7 +24523,7 @@
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -24538,16 +24532,16 @@
       </c>
       <c r="B31" s="184"/>
       <c r="C31" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D31" s="155" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E31" s="185" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F31" s="328" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="G31" s="188">
         <v>9</v>
@@ -24561,13 +24555,13 @@
       </c>
       <c r="B32" s="190"/>
       <c r="C32" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D32" s="191" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E32" s="185" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F32" s="329"/>
       <c r="G32" s="193">
@@ -24582,13 +24576,13 @@
       </c>
       <c r="B33" s="190"/>
       <c r="C33" s="155" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D33" s="191" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E33" s="192" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F33" s="329" t="s">
         <v>80</v>
@@ -24707,7 +24701,7 @@
       </c>
       <c r="B4" s="184"/>
       <c r="C4" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="155" t="s">
         <v>74</v>
@@ -24727,7 +24721,7 @@
       </c>
       <c r="B5" s="200"/>
       <c r="C5" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="155" t="s">
         <v>77</v>
@@ -24747,7 +24741,7 @@
       </c>
       <c r="B6" s="200"/>
       <c r="C6" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D6" s="155" t="s">
         <v>80</v>
@@ -24767,7 +24761,7 @@
       </c>
       <c r="B7" s="200"/>
       <c r="C7" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D7" s="155" t="s">
         <v>83</v>
@@ -24787,7 +24781,7 @@
       </c>
       <c r="B8" s="200"/>
       <c r="C8" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D8" s="155" t="s">
         <v>86</v>
@@ -24807,7 +24801,7 @@
       </c>
       <c r="B9" s="200"/>
       <c r="C9" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D9" s="155" t="s">
         <v>89</v>
@@ -24827,7 +24821,7 @@
       </c>
       <c r="B10" s="200"/>
       <c r="C10" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D10" s="155" t="s">
         <v>92</v>
@@ -24847,7 +24841,7 @@
       </c>
       <c r="B11" s="200"/>
       <c r="C11" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D11" s="155" t="s">
         <v>98</v>
@@ -24867,7 +24861,7 @@
       </c>
       <c r="B12" s="200"/>
       <c r="C12" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D12" s="155" t="s">
         <v>103</v>
@@ -24887,7 +24881,7 @@
       </c>
       <c r="B13" s="200"/>
       <c r="C13" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D13" s="155" t="s">
         <v>107</v>
@@ -24907,7 +24901,7 @@
       </c>
       <c r="B14" s="200"/>
       <c r="C14" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D14" s="155" t="s">
         <v>110</v>
@@ -24927,7 +24921,7 @@
       </c>
       <c r="B15" s="200"/>
       <c r="C15" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D15" s="155" t="s">
         <v>116</v>
@@ -24947,7 +24941,7 @@
       </c>
       <c r="B16" s="200"/>
       <c r="C16" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D16" s="155" t="s">
         <v>113</v>
@@ -24967,7 +24961,7 @@
       </c>
       <c r="B17" s="200"/>
       <c r="C17" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D17" s="155" t="s">
         <v>688</v>
@@ -24987,7 +24981,7 @@
       </c>
       <c r="B18" s="200"/>
       <c r="C18" s="185" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D18" s="155" t="s">
         <v>747</v>
@@ -25447,20 +25441,20 @@
       </c>
       <c r="B40" s="165"/>
       <c r="C40" s="185" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D40" s="155" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E40" s="333"/>
       <c r="F40" s="334" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G40" s="188">
         <v>1</v>
       </c>
       <c r="H40" s="92" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="41" spans="1:8" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25469,20 +25463,20 @@
       </c>
       <c r="B41" s="165"/>
       <c r="C41" s="185" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D41" s="155" t="s">
         <v>80</v>
       </c>
       <c r="E41" s="333"/>
       <c r="F41" s="334" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G41" s="188">
         <v>2</v>
       </c>
       <c r="H41" s="92" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="42" spans="1:8" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25491,20 +25485,20 @@
       </c>
       <c r="B42" s="165"/>
       <c r="C42" s="185" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D42" s="155" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E42" s="333"/>
       <c r="F42" s="334" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G42" s="188">
         <v>3</v>
       </c>
       <c r="H42" s="92" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="43" spans="1:8" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25513,14 +25507,14 @@
       </c>
       <c r="B43" s="165"/>
       <c r="C43" s="185" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D43" s="155" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E43" s="333"/>
       <c r="F43" s="334" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G43" s="188">
         <v>4</v>
@@ -25533,14 +25527,14 @@
       </c>
       <c r="B44" s="165"/>
       <c r="C44" s="185" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D44" s="155" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E44" s="333"/>
       <c r="F44" s="334" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G44" s="188">
         <v>5</v>
@@ -25553,20 +25547,20 @@
       </c>
       <c r="B45" s="165"/>
       <c r="C45" s="185" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D45" s="155" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E45" s="333"/>
       <c r="F45" s="334" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G45" s="188">
         <v>6</v>
       </c>
       <c r="H45" s="92" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="46" spans="1:8" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25575,20 +25569,20 @@
       </c>
       <c r="B46" s="165"/>
       <c r="C46" s="185" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D46" s="155" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E46" s="333"/>
       <c r="F46" s="334" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G46" s="188">
         <v>7</v>
       </c>
       <c r="H46" s="92" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="47" spans="1:8" customFormat="1" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -25597,14 +25591,14 @@
       </c>
       <c r="B47" s="165"/>
       <c r="C47" s="185" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D47" s="155" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E47" s="333"/>
       <c r="F47" s="334" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G47" s="188">
         <v>8</v>
@@ -25617,16 +25611,16 @@
       </c>
       <c r="B48" s="165"/>
       <c r="C48" s="185" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D48" s="155" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E48" s="333" t="s">
         <v>80</v>
       </c>
       <c r="F48" s="334" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="G48" s="188">
         <v>9</v>
@@ -25639,16 +25633,16 @@
       </c>
       <c r="B49" s="172"/>
       <c r="C49" s="192" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D49" s="191" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E49" s="335" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F49" s="336" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G49" s="193">
         <v>10</v>
@@ -25755,7 +25749,7 @@
         <v>420</v>
       </c>
       <c r="H3" s="319" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="I3" s="319" t="s">
         <v>474</v>
@@ -25767,7 +25761,7 @@
       </c>
       <c r="B4" s="235"/>
       <c r="C4" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="229" t="s">
         <v>688</v>
@@ -25788,7 +25782,7 @@
       </c>
       <c r="B5" s="235"/>
       <c r="C5" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="229" t="s">
         <v>74</v>
@@ -25809,7 +25803,7 @@
       </c>
       <c r="B6" s="229"/>
       <c r="C6" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D6" s="229" t="s">
         <v>77</v>
@@ -25830,7 +25824,7 @@
       </c>
       <c r="B7" s="229"/>
       <c r="C7" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D7" s="229" t="s">
         <v>80</v>
@@ -25851,7 +25845,7 @@
       </c>
       <c r="B8" s="229"/>
       <c r="C8" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D8" s="229" t="s">
         <v>83</v>
@@ -25872,7 +25866,7 @@
       </c>
       <c r="B9" s="229"/>
       <c r="C9" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D9" s="229" t="s">
         <v>86</v>
@@ -25893,7 +25887,7 @@
       </c>
       <c r="B10" s="229"/>
       <c r="C10" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D10" s="229" t="s">
         <v>89</v>
@@ -25914,7 +25908,7 @@
       </c>
       <c r="B11" s="229"/>
       <c r="C11" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D11" s="229" t="s">
         <v>92</v>
@@ -25935,7 +25929,7 @@
       </c>
       <c r="B12" s="229"/>
       <c r="C12" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D12" s="229" t="s">
         <v>98</v>
@@ -25956,7 +25950,7 @@
       </c>
       <c r="B13" s="229"/>
       <c r="C13" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D13" s="229" t="s">
         <v>100</v>
@@ -25977,7 +25971,7 @@
       </c>
       <c r="B14" s="229"/>
       <c r="C14" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D14" s="229" t="s">
         <v>103</v>
@@ -25998,7 +25992,7 @@
       </c>
       <c r="B15" s="229"/>
       <c r="C15" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D15" s="229" t="s">
         <v>107</v>
@@ -26019,7 +26013,7 @@
       </c>
       <c r="B16" s="229"/>
       <c r="C16" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D16" s="229" t="s">
         <v>110</v>
@@ -26040,7 +26034,7 @@
       </c>
       <c r="B17" s="229"/>
       <c r="C17" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D17" s="229" t="s">
         <v>113</v>
@@ -26061,7 +26055,7 @@
       </c>
       <c r="B18" s="229"/>
       <c r="C18" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D18" s="229" t="s">
         <v>116</v>
@@ -26082,7 +26076,7 @@
       </c>
       <c r="B19" s="229"/>
       <c r="C19" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D19" s="229" t="s">
         <v>123</v>
@@ -26103,7 +26097,7 @@
       </c>
       <c r="B20" s="229"/>
       <c r="C20" s="229" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D20" s="229" t="s">
         <v>747</v>
@@ -26523,7 +26517,7 @@
       </c>
       <c r="B40" s="235"/>
       <c r="C40" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D40" s="229" t="s">
         <v>688</v>
@@ -26545,23 +26539,23 @@
       </c>
       <c r="B41" s="235"/>
       <c r="C41" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D41" s="229" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E41" s="229"/>
       <c r="F41" s="229" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="G41" s="230">
         <v>2</v>
       </c>
       <c r="H41" s="229" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="I41" s="229" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K41" s="19"/>
     </row>
@@ -26571,21 +26565,21 @@
       </c>
       <c r="B42" s="235"/>
       <c r="C42" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D42" s="229" t="s">
         <v>80</v>
       </c>
       <c r="E42" s="229"/>
       <c r="F42" s="229" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="G42" s="230">
         <v>3</v>
       </c>
       <c r="H42" s="229"/>
       <c r="I42" s="229" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K42" s="19"/>
     </row>
@@ -26595,21 +26589,21 @@
       </c>
       <c r="B43" s="235"/>
       <c r="C43" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D43" s="229" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E43" s="229"/>
       <c r="F43" s="229" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="G43" s="230">
         <v>4</v>
       </c>
       <c r="H43" s="229"/>
       <c r="I43" s="229" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K43" s="19"/>
     </row>
@@ -26619,14 +26613,14 @@
       </c>
       <c r="B44" s="235"/>
       <c r="C44" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D44" s="229" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E44" s="229"/>
       <c r="F44" s="229" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="G44" s="230">
         <v>5</v>
@@ -26641,14 +26635,14 @@
       </c>
       <c r="B45" s="235"/>
       <c r="C45" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D45" s="229" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E45" s="229"/>
       <c r="F45" s="229" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G45" s="230">
         <v>6</v>
@@ -26663,21 +26657,21 @@
       </c>
       <c r="B46" s="235"/>
       <c r="C46" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D46" s="229" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E46" s="229"/>
       <c r="F46" s="229" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="G46" s="230">
         <v>7</v>
       </c>
       <c r="H46" s="229"/>
       <c r="I46" s="229" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="K46" s="19"/>
     </row>
@@ -26687,21 +26681,21 @@
       </c>
       <c r="B47" s="235"/>
       <c r="C47" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D47" s="229" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E47" s="229"/>
       <c r="F47" s="229" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="G47" s="230">
         <v>8</v>
       </c>
       <c r="H47" s="229"/>
       <c r="I47" s="229" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K47" s="19"/>
     </row>
@@ -26711,16 +26705,16 @@
       </c>
       <c r="B48" s="235"/>
       <c r="C48" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D48" s="229" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E48" s="339" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="F48" s="229" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G48" s="230">
         <v>9</v>
@@ -26735,14 +26729,14 @@
       </c>
       <c r="B49" s="235"/>
       <c r="C49" s="229" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D49" s="229" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E49" s="339"/>
       <c r="F49" s="229" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G49" s="230">
         <v>10</v>
@@ -26757,16 +26751,16 @@
       </c>
       <c r="B50" s="241"/>
       <c r="C50" s="232" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D50" s="232" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E50" s="341" t="s">
         <v>80</v>
       </c>
       <c r="F50" s="232" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G50" s="233">
         <v>11</v>
@@ -26795,10 +26789,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26880,7 +26874,7 @@
         <v>797</v>
       </c>
       <c r="E4" s="155" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F4" s="204" t="s">
         <v>509</v>
@@ -26900,61 +26894,19 @@
         <v>797</v>
       </c>
       <c r="E5" s="155" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F5" s="204" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="183">
-        <v>42736</v>
-      </c>
-      <c r="B6" s="154">
-        <v>42736</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>805</v>
-      </c>
-      <c r="D6" s="155" t="s">
-        <v>797</v>
-      </c>
-      <c r="E6" s="155" t="s">
-        <v>903</v>
-      </c>
-      <c r="F6" s="204" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="183">
-        <v>42736</v>
-      </c>
-      <c r="B7" s="154">
-        <v>42736</v>
-      </c>
-      <c r="C7" s="135" t="s">
-        <v>806</v>
-      </c>
-      <c r="D7" s="155" t="s">
-        <v>797</v>
-      </c>
-      <c r="E7" s="155" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="204" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E18" s="16"/>
+    <row r="15" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{00000000-0004-0000-0E00-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" xr:uid="{00000000-0004-0000-0E00-000001000000}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{490599C8-B202-3847-818C-93E9212F1B5D}"/>
-    <hyperlink ref="C7" r:id="rId4" xr:uid="{FFAD6457-CAFC-9F4A-92CC-B2E98019F6DA}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{490599C8-B202-3847-818C-93E9212F1B5D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180599999999998" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -26962,7 +26914,7 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -27040,7 +26992,7 @@
       </c>
       <c r="B4" s="95"/>
       <c r="C4" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="148" t="s">
         <v>800</v>
@@ -27055,7 +27007,7 @@
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="95" t="s">
         <v>707</v>
@@ -27250,7 +27202,7 @@
       </c>
       <c r="B18" s="104"/>
       <c r="C18" s="100" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D18" s="209" t="s">
         <v>800</v>
@@ -27472,7 +27424,7 @@
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>74</v>
@@ -27490,7 +27442,7 @@
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>77</v>
@@ -27508,7 +27460,7 @@
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>80</v>
@@ -27526,7 +27478,7 @@
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>83</v>
@@ -27544,7 +27496,7 @@
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>86</v>
@@ -27562,7 +27514,7 @@
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D9" s="76" t="s">
         <v>89</v>
@@ -27580,7 +27532,7 @@
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D10" s="76" t="s">
         <v>92</v>
@@ -27598,7 +27550,7 @@
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D11" s="76" t="s">
         <v>103</v>
@@ -27616,7 +27568,7 @@
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D12" s="76" t="s">
         <v>107</v>
@@ -27634,7 +27586,7 @@
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>110</v>
@@ -27652,7 +27604,7 @@
       </c>
       <c r="B14" s="301"/>
       <c r="C14" s="302" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D14" s="308" t="s">
         <v>784</v>
@@ -27670,7 +27622,7 @@
       </c>
       <c r="B15" s="301"/>
       <c r="C15" s="302" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D15" s="308" t="s">
         <v>785</v>
@@ -27688,7 +27640,7 @@
       </c>
       <c r="B16" s="95"/>
       <c r="C16" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>98</v>
@@ -27706,7 +27658,7 @@
       </c>
       <c r="B17" s="143"/>
       <c r="C17" s="144" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D17" s="144" t="s">
         <v>100</v>
@@ -27724,7 +27676,7 @@
       </c>
       <c r="B18" s="95"/>
       <c r="C18" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>116</v>
@@ -27742,7 +27694,7 @@
       </c>
       <c r="B19" s="95"/>
       <c r="C19" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D19" s="76" t="s">
         <v>113</v>
@@ -27760,7 +27712,7 @@
       </c>
       <c r="B20" s="95"/>
       <c r="C20" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D20" s="76" t="s">
         <v>120</v>
@@ -27778,7 +27730,7 @@
       </c>
       <c r="B21" s="95"/>
       <c r="C21" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D21" s="76" t="s">
         <v>123</v>
@@ -27796,7 +27748,7 @@
       </c>
       <c r="B22" s="98"/>
       <c r="C22" s="82" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D22" s="82" t="s">
         <v>125</v>
@@ -29470,7 +29422,7 @@
       </c>
       <c r="B115" s="75"/>
       <c r="C115" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D115" s="79" t="s">
         <v>80</v>
@@ -29488,10 +29440,10 @@
       </c>
       <c r="B116" s="75"/>
       <c r="C116" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D116" s="79" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E116" s="104" t="s">
         <v>800</v>
@@ -29506,10 +29458,10 @@
       </c>
       <c r="B117" s="75"/>
       <c r="C117" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D117" s="79" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E117" s="104" t="s">
         <v>800</v>
@@ -29524,10 +29476,10 @@
       </c>
       <c r="B118" s="75"/>
       <c r="C118" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D118" s="79" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E118" s="104" t="s">
         <v>800</v>
@@ -29542,10 +29494,10 @@
       </c>
       <c r="B119" s="75"/>
       <c r="C119" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D119" s="79" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E119" s="104" t="s">
         <v>800</v>
@@ -29560,10 +29512,10 @@
       </c>
       <c r="B120" s="75"/>
       <c r="C120" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D120" s="79" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E120" s="104" t="s">
         <v>800</v>
@@ -29578,10 +29530,10 @@
       </c>
       <c r="B121" s="75"/>
       <c r="C121" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D121" s="79" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E121" s="104" t="s">
         <v>800</v>
@@ -29596,10 +29548,10 @@
       </c>
       <c r="B122" s="75"/>
       <c r="C122" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D122" s="79" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E122" s="104" t="s">
         <v>800</v>
@@ -29614,10 +29566,10 @@
       </c>
       <c r="B123" s="342"/>
       <c r="C123" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D123" s="87" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="E123" s="104" t="s">
         <v>800</v>
@@ -29696,7 +29648,7 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="220" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B4" s="156" t="s">
         <v>707</v>
@@ -29710,7 +29662,7 @@
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="220" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B5" s="156" t="s">
         <v>715</v>
@@ -29724,7 +29676,7 @@
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="220" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B6" s="219" t="s">
         <v>718</v>
@@ -29738,7 +29690,7 @@
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="221" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B7" s="222" t="s">
         <v>721</v>
@@ -29838,7 +29790,7 @@
       </c>
       <c r="B4" s="95"/>
       <c r="C4" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>412</v>
@@ -29856,7 +29808,7 @@
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>412</v>
@@ -30468,10 +30420,10 @@
       </c>
       <c r="B39" s="83"/>
       <c r="C39" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D39" s="96" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E39" s="209" t="s">
         <v>800</v>
@@ -30486,10 +30438,10 @@
       </c>
       <c r="B40" s="83"/>
       <c r="C40" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D40" s="96" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E40" s="209" t="s">
         <v>800</v>
@@ -30504,10 +30456,10 @@
       </c>
       <c r="B41" s="83"/>
       <c r="C41" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D41" s="96" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E41" s="209" t="s">
         <v>800</v>
@@ -30522,10 +30474,10 @@
       </c>
       <c r="B42" s="86"/>
       <c r="C42" s="79" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D42" s="102" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E42" s="209" t="s">
         <v>800</v>
@@ -30626,7 +30578,7 @@
       </c>
       <c r="B4" s="95"/>
       <c r="C4" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>509</v>
@@ -30644,7 +30596,7 @@
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>509</v>
@@ -31058,10 +31010,10 @@
       </c>
       <c r="B28" s="83"/>
       <c r="C28" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D28" s="315" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E28" s="209" t="s">
         <v>800</v>
@@ -31076,10 +31028,10 @@
       </c>
       <c r="B29" s="83"/>
       <c r="C29" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D29" s="315" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E29" s="209" t="s">
         <v>800</v>
@@ -31094,10 +31046,10 @@
       </c>
       <c r="B30" s="86"/>
       <c r="C30" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D30" s="315" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E30" s="209" t="s">
         <v>800</v>
@@ -31223,7 +31175,7 @@
       </c>
       <c r="B4" s="35"/>
       <c r="C4" s="38" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="38" t="s">
         <v>25</v>
@@ -31235,7 +31187,7 @@
         <v>797</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="H4" s="35"/>
       <c r="I4" s="56" t="s">
@@ -31501,13 +31453,13 @@
       </c>
       <c r="B16" s="313"/>
       <c r="C16" s="313" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D16" s="313" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E16" s="313" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="F16" s="314" t="s">
         <v>797</v>
@@ -31614,7 +31566,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="286" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B4" s="286" t="s">
         <v>767</v>
@@ -31635,7 +31587,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="286" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B5" s="286" t="s">
         <v>767</v>
@@ -31656,7 +31608,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="286" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B6" s="286" t="s">
         <v>767</v>
@@ -31679,7 +31631,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="286" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B7" s="286" t="s">
         <v>767</v>
@@ -31702,7 +31654,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="286" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B8" s="286" t="s">
         <v>777</v>
@@ -31723,7 +31675,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="286" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B9" s="286" t="s">
         <v>777</v>
@@ -31744,7 +31696,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="286" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B10" s="286" t="s">
         <v>777</v>
@@ -31767,7 +31719,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="286" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B11" s="286" t="s">
         <v>777</v>
@@ -31798,7 +31750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IO123"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
@@ -31885,7 +31837,7 @@
         <v>65</v>
       </c>
       <c r="N2" s="317" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -31929,7 +31881,7 @@
         <v>73</v>
       </c>
       <c r="N3" s="318" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
     </row>
     <row r="4" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -31938,7 +31890,7 @@
       </c>
       <c r="B4" s="75"/>
       <c r="C4" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>74</v>
@@ -31959,7 +31911,7 @@
       <c r="L4" s="95"/>
       <c r="M4" s="78"/>
       <c r="N4" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="5" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -31968,7 +31920,7 @@
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>77</v>
@@ -31989,7 +31941,7 @@
       <c r="L5" s="95"/>
       <c r="M5" s="78"/>
       <c r="N5" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -31998,7 +31950,7 @@
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D6" s="76" t="s">
         <v>80</v>
@@ -32019,7 +31971,7 @@
       <c r="L6" s="95"/>
       <c r="M6" s="78"/>
       <c r="N6" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="7" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32028,7 +31980,7 @@
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D7" s="76" t="s">
         <v>83</v>
@@ -32049,7 +32001,7 @@
       <c r="L7" s="95"/>
       <c r="M7" s="78"/>
       <c r="N7" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="8" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32058,7 +32010,7 @@
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>86</v>
@@ -32079,7 +32031,7 @@
       <c r="L8" s="95"/>
       <c r="M8" s="78"/>
       <c r="N8" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="9" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32088,7 +32040,7 @@
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D9" s="76" t="s">
         <v>89</v>
@@ -32109,7 +32061,7 @@
       <c r="L9" s="95"/>
       <c r="M9" s="78"/>
       <c r="N9" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="10" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32118,7 +32070,7 @@
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D10" s="79" t="s">
         <v>92</v>
@@ -32139,7 +32091,7 @@
       <c r="L10" s="95"/>
       <c r="M10" s="78"/>
       <c r="N10" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="11" spans="1:249" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32148,7 +32100,7 @@
       </c>
       <c r="B11" s="81"/>
       <c r="C11" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>95</v>
@@ -32171,7 +32123,7 @@
       <c r="L11" s="98"/>
       <c r="M11" s="77"/>
       <c r="N11" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="12" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32180,7 +32132,7 @@
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D12" s="76" t="s">
         <v>98</v>
@@ -32203,7 +32155,7 @@
       <c r="L12" s="95"/>
       <c r="M12" s="78"/>
       <c r="N12" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="13" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32212,7 +32164,7 @@
       </c>
       <c r="B13" s="98"/>
       <c r="C13" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D13" s="79" t="s">
         <v>100</v>
@@ -32233,7 +32185,7 @@
       <c r="L13" s="98"/>
       <c r="M13" s="77"/>
       <c r="N13" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="14" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32242,7 +32194,7 @@
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>103</v>
@@ -32265,7 +32217,7 @@
       <c r="L14" s="95"/>
       <c r="M14" s="78"/>
       <c r="N14" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="15" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32274,7 +32226,7 @@
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>107</v>
@@ -32295,7 +32247,7 @@
       <c r="L15" s="95"/>
       <c r="M15" s="78"/>
       <c r="N15" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="16" spans="1:249" s="307" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -32304,7 +32256,7 @@
       </c>
       <c r="B16" s="301"/>
       <c r="C16" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D16" s="302" t="s">
         <v>110</v>
@@ -32327,7 +32279,7 @@
       <c r="L16" s="303"/>
       <c r="M16" s="305"/>
       <c r="N16" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O16" s="306"/>
       <c r="P16" s="306"/>
@@ -32571,7 +32523,7 @@
       </c>
       <c r="B17" s="301"/>
       <c r="C17" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D17" s="308" t="s">
         <v>784</v>
@@ -32594,7 +32546,7 @@
       <c r="L17" s="303"/>
       <c r="M17" s="305"/>
       <c r="N17" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O17" s="306"/>
       <c r="P17" s="306"/>
@@ -32838,7 +32790,7 @@
       </c>
       <c r="B18" s="301"/>
       <c r="C18" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D18" s="308" t="s">
         <v>785</v>
@@ -32861,7 +32813,7 @@
       <c r="L18" s="303"/>
       <c r="M18" s="305"/>
       <c r="N18" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O18" s="306"/>
       <c r="P18" s="306"/>
@@ -33105,7 +33057,7 @@
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D19" s="76" t="s">
         <v>113</v>
@@ -33126,7 +33078,7 @@
       <c r="L19" s="95"/>
       <c r="M19" s="78"/>
       <c r="N19" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="20" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33135,7 +33087,7 @@
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D20" s="76" t="s">
         <v>116</v>
@@ -33158,7 +33110,7 @@
       <c r="L20" s="95"/>
       <c r="M20" s="78"/>
       <c r="N20" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="21" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33167,7 +33119,7 @@
       </c>
       <c r="B21" s="147"/>
       <c r="C21" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D21" s="96" t="s">
         <v>120</v>
@@ -33188,7 +33140,7 @@
       <c r="L21" s="148"/>
       <c r="M21" s="270"/>
       <c r="N21" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33197,7 +33149,7 @@
       </c>
       <c r="B22" s="147"/>
       <c r="C22" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D22" s="96" t="s">
         <v>123</v>
@@ -33218,7 +33170,7 @@
       <c r="L22" s="148"/>
       <c r="M22" s="270"/>
       <c r="N22" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="23" spans="1:249" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33227,7 +33179,7 @@
       </c>
       <c r="B23" s="147"/>
       <c r="C23" s="76" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D23" s="96" t="s">
         <v>125</v>
@@ -33248,7 +33200,7 @@
       <c r="L23" s="148"/>
       <c r="M23" s="270"/>
       <c r="N23" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="24" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33278,7 +33230,7 @@
       <c r="L24" s="95"/>
       <c r="M24" s="78"/>
       <c r="N24" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="25" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33308,7 +33260,7 @@
       <c r="L25" s="95"/>
       <c r="M25" s="78"/>
       <c r="N25" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="26" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33338,7 +33290,7 @@
       <c r="L26" s="95"/>
       <c r="M26" s="78"/>
       <c r="N26" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="27" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33368,7 +33320,7 @@
       <c r="L27" s="148"/>
       <c r="M27" s="270"/>
       <c r="N27" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="28" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33398,7 +33350,7 @@
       <c r="L28" s="95"/>
       <c r="M28" s="78"/>
       <c r="N28" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="29" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33428,7 +33380,7 @@
       <c r="L29" s="148"/>
       <c r="M29" s="270"/>
       <c r="N29" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33458,7 +33410,7 @@
       <c r="L30" s="95"/>
       <c r="M30" s="78"/>
       <c r="N30" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="31" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33488,7 +33440,7 @@
       <c r="L31" s="95"/>
       <c r="M31" s="78"/>
       <c r="N31" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33520,7 +33472,7 @@
       <c r="L32" s="95"/>
       <c r="M32" s="78"/>
       <c r="N32" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33550,7 +33502,7 @@
       <c r="L33" s="148"/>
       <c r="M33" s="270"/>
       <c r="N33" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33580,7 +33532,7 @@
       <c r="L34" s="148"/>
       <c r="M34" s="270"/>
       <c r="N34" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33610,7 +33562,7 @@
       <c r="L35" s="95"/>
       <c r="M35" s="78"/>
       <c r="N35" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33642,7 +33594,7 @@
       <c r="L36" s="95"/>
       <c r="M36" s="78"/>
       <c r="N36" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33674,7 +33626,7 @@
       <c r="L37" s="95"/>
       <c r="M37" s="78"/>
       <c r="N37" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33704,7 +33656,7 @@
       <c r="L38" s="95"/>
       <c r="M38" s="78"/>
       <c r="N38" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33734,7 +33686,7 @@
       <c r="L39" s="95"/>
       <c r="M39" s="78"/>
       <c r="N39" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33764,7 +33716,7 @@
       <c r="L40" s="95"/>
       <c r="M40" s="78"/>
       <c r="N40" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33794,7 +33746,7 @@
       <c r="L41" s="95"/>
       <c r="M41" s="78"/>
       <c r="N41" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33824,7 +33776,7 @@
       <c r="L42" s="95"/>
       <c r="M42" s="78"/>
       <c r="N42" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33854,7 +33806,7 @@
       <c r="L43" s="95"/>
       <c r="M43" s="78"/>
       <c r="N43" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33884,7 +33836,7 @@
       <c r="L44" s="95"/>
       <c r="M44" s="78"/>
       <c r="N44" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33916,7 +33868,7 @@
       <c r="L45" s="95"/>
       <c r="M45" s="78"/>
       <c r="N45" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33948,7 +33900,7 @@
       <c r="L46" s="95"/>
       <c r="M46" s="78"/>
       <c r="N46" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -33978,7 +33930,7 @@
       <c r="L47" s="95"/>
       <c r="M47" s="78"/>
       <c r="N47" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34008,7 +33960,7 @@
       <c r="L48" s="148"/>
       <c r="M48" s="270"/>
       <c r="N48" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34038,7 +33990,7 @@
       <c r="L49" s="95"/>
       <c r="M49" s="78"/>
       <c r="N49" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34068,7 +34020,7 @@
       <c r="L50" s="95"/>
       <c r="M50" s="78"/>
       <c r="N50" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34098,7 +34050,7 @@
       <c r="L51" s="95"/>
       <c r="M51" s="78"/>
       <c r="N51" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34128,7 +34080,7 @@
       <c r="L52" s="95"/>
       <c r="M52" s="78"/>
       <c r="N52" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34158,7 +34110,7 @@
       <c r="L53" s="148"/>
       <c r="M53" s="270"/>
       <c r="N53" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34190,7 +34142,7 @@
       <c r="L54" s="95"/>
       <c r="M54" s="78"/>
       <c r="N54" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34220,7 +34172,7 @@
       <c r="L55" s="148"/>
       <c r="M55" s="270"/>
       <c r="N55" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34250,7 +34202,7 @@
       <c r="L56" s="95"/>
       <c r="M56" s="78"/>
       <c r="N56" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34280,7 +34232,7 @@
       <c r="L57" s="95"/>
       <c r="M57" s="78"/>
       <c r="N57" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34310,7 +34262,7 @@
       <c r="L58" s="95"/>
       <c r="M58" s="78"/>
       <c r="N58" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34340,7 +34292,7 @@
       <c r="L59" s="148"/>
       <c r="M59" s="270"/>
       <c r="N59" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="60" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34370,7 +34322,7 @@
       <c r="L60" s="98"/>
       <c r="M60" s="77"/>
       <c r="N60" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="61" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34400,7 +34352,7 @@
       <c r="L61" s="98"/>
       <c r="M61" s="77"/>
       <c r="N61" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="62" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34430,7 +34382,7 @@
       <c r="L62" s="98"/>
       <c r="M62" s="77"/>
       <c r="N62" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="63" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34460,7 +34412,7 @@
       <c r="L63" s="98"/>
       <c r="M63" s="77"/>
       <c r="N63" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="64" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34490,7 +34442,7 @@
       <c r="L64" s="148"/>
       <c r="M64" s="270"/>
       <c r="N64" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="65" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34520,7 +34472,7 @@
       <c r="L65" s="148"/>
       <c r="M65" s="270"/>
       <c r="N65" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34550,7 +34502,7 @@
       <c r="L66" s="83"/>
       <c r="M66" s="84"/>
       <c r="N66" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34580,7 +34532,7 @@
       <c r="L67" s="83"/>
       <c r="M67" s="84"/>
       <c r="N67" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34610,7 +34562,7 @@
       <c r="L68" s="83"/>
       <c r="M68" s="84"/>
       <c r="N68" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34640,7 +34592,7 @@
       <c r="L69" s="83"/>
       <c r="M69" s="84"/>
       <c r="N69" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34670,7 +34622,7 @@
       <c r="L70" s="83"/>
       <c r="M70" s="84"/>
       <c r="N70" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="71" spans="1:14" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34700,7 +34652,7 @@
       <c r="L71" s="98"/>
       <c r="M71" s="77"/>
       <c r="N71" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34730,7 +34682,7 @@
       <c r="L72" s="83"/>
       <c r="M72" s="84"/>
       <c r="N72" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34760,7 +34712,7 @@
       <c r="L73" s="83"/>
       <c r="M73" s="84"/>
       <c r="N73" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34790,7 +34742,7 @@
       <c r="L74" s="83"/>
       <c r="M74" s="84"/>
       <c r="N74" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34820,7 +34772,7 @@
       <c r="L75" s="83"/>
       <c r="M75" s="84"/>
       <c r="N75" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34850,7 +34802,7 @@
       <c r="L76" s="83"/>
       <c r="M76" s="84"/>
       <c r="N76" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34880,7 +34832,7 @@
       <c r="L77" s="83"/>
       <c r="M77" s="84"/>
       <c r="N77" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34912,7 +34864,7 @@
       <c r="L78" s="83"/>
       <c r="M78" s="84"/>
       <c r="N78" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34942,7 +34894,7 @@
       <c r="L79" s="83"/>
       <c r="M79" s="84"/>
       <c r="N79" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -34974,7 +34926,7 @@
       <c r="L80" s="83"/>
       <c r="M80" s="84"/>
       <c r="N80" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35004,7 +34956,7 @@
       <c r="L81" s="83"/>
       <c r="M81" s="84"/>
       <c r="N81" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35034,7 +34986,7 @@
       <c r="L82" s="83"/>
       <c r="M82" s="84"/>
       <c r="N82" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35064,7 +35016,7 @@
       <c r="L83" s="83"/>
       <c r="M83" s="84"/>
       <c r="N83" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35094,7 +35046,7 @@
       <c r="L84" s="83"/>
       <c r="M84" s="84"/>
       <c r="N84" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35126,7 +35078,7 @@
       <c r="L85" s="83"/>
       <c r="M85" s="84"/>
       <c r="N85" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35156,7 +35108,7 @@
       <c r="L86" s="83"/>
       <c r="M86" s="84"/>
       <c r="N86" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35186,7 +35138,7 @@
       <c r="L87" s="83"/>
       <c r="M87" s="84"/>
       <c r="N87" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35216,7 +35168,7 @@
       <c r="L88" s="83"/>
       <c r="M88" s="84"/>
       <c r="N88" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35246,7 +35198,7 @@
       <c r="L89" s="83"/>
       <c r="M89" s="84"/>
       <c r="N89" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35276,7 +35228,7 @@
       <c r="L90" s="83"/>
       <c r="M90" s="84"/>
       <c r="N90" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35306,7 +35258,7 @@
       <c r="L91" s="83"/>
       <c r="M91" s="84"/>
       <c r="N91" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35336,7 +35288,7 @@
       <c r="L92" s="83"/>
       <c r="M92" s="84"/>
       <c r="N92" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35366,7 +35318,7 @@
       <c r="L93" s="83"/>
       <c r="M93" s="84"/>
       <c r="N93" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35396,7 +35348,7 @@
       <c r="L94" s="83"/>
       <c r="M94" s="84"/>
       <c r="N94" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35426,7 +35378,7 @@
       <c r="L95" s="83"/>
       <c r="M95" s="84"/>
       <c r="N95" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="96" spans="1:14" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35456,7 +35408,7 @@
       <c r="L96" s="143"/>
       <c r="M96" s="182"/>
       <c r="N96" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="97" spans="1:249" s="21" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35486,7 +35438,7 @@
       <c r="L97" s="143"/>
       <c r="M97" s="182"/>
       <c r="N97" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="98" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35516,7 +35468,7 @@
       <c r="L98" s="83"/>
       <c r="M98" s="84"/>
       <c r="N98" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="99" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35546,7 +35498,7 @@
       <c r="L99" s="83"/>
       <c r="M99" s="84"/>
       <c r="N99" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="100" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35578,7 +35530,7 @@
       <c r="L100" s="83"/>
       <c r="M100" s="84"/>
       <c r="N100" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="101" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35608,7 +35560,7 @@
       <c r="L101" s="83"/>
       <c r="M101" s="84"/>
       <c r="N101" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="102" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35638,7 +35590,7 @@
       <c r="L102" s="83"/>
       <c r="M102" s="84"/>
       <c r="N102" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="103" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35670,7 +35622,7 @@
       <c r="L103" s="83"/>
       <c r="M103" s="84"/>
       <c r="N103" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="104" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35702,7 +35654,7 @@
       <c r="L104" s="83"/>
       <c r="M104" s="84"/>
       <c r="N104" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="105" spans="1:249" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35732,7 +35684,7 @@
       <c r="L105" s="95"/>
       <c r="M105" s="78"/>
       <c r="N105" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="106" spans="1:249" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35762,7 +35714,7 @@
       <c r="L106" s="98"/>
       <c r="M106" s="77"/>
       <c r="N106" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="107" spans="1:249" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35792,7 +35744,7 @@
       <c r="L107" s="98"/>
       <c r="M107" s="77"/>
       <c r="N107" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="108" spans="1:249" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35822,7 +35774,7 @@
       <c r="L108" s="148"/>
       <c r="M108" s="270"/>
       <c r="N108" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="109" spans="1:249" s="18" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -35854,7 +35806,7 @@
       <c r="L109" s="98"/>
       <c r="M109" s="77"/>
       <c r="N109" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O109" s="62"/>
       <c r="P109" s="62"/>
@@ -36119,7 +36071,7 @@
       <c r="L110" s="98"/>
       <c r="M110" s="77"/>
       <c r="N110" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O110" s="62"/>
       <c r="P110" s="62"/>
@@ -36386,7 +36338,7 @@
       <c r="L111" s="98"/>
       <c r="M111" s="77"/>
       <c r="N111" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O111" s="62"/>
       <c r="P111" s="62"/>
@@ -36651,7 +36603,7 @@
       <c r="L112" s="98"/>
       <c r="M112" s="77"/>
       <c r="N112" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O112" s="62"/>
       <c r="P112" s="62"/>
@@ -36916,7 +36868,7 @@
       <c r="L113" s="98"/>
       <c r="M113" s="77"/>
       <c r="N113" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O113" s="62"/>
       <c r="P113" s="62"/>
@@ -37181,7 +37133,7 @@
       <c r="L114" s="104"/>
       <c r="M114" s="105"/>
       <c r="N114" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="O114" s="62"/>
       <c r="P114" s="62"/>
@@ -37425,13 +37377,13 @@
       </c>
       <c r="B115" s="81"/>
       <c r="C115" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D115" s="315" t="s">
         <v>80</v>
       </c>
       <c r="E115" s="315" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F115" s="315" t="s">
         <v>81</v>
@@ -37441,10 +37393,10 @@
       </c>
       <c r="H115" s="315"/>
       <c r="K115" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N115" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="116" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -37453,26 +37405,26 @@
       </c>
       <c r="B116" s="81"/>
       <c r="C116" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D116" s="315" t="s">
+        <v>810</v>
+      </c>
+      <c r="E116" s="315" t="s">
+        <v>811</v>
+      </c>
+      <c r="F116" s="315" t="s">
         <v>812</v>
       </c>
-      <c r="E116" s="315" t="s">
+      <c r="G116" s="316" t="s">
         <v>813</v>
-      </c>
-      <c r="F116" s="315" t="s">
-        <v>814</v>
-      </c>
-      <c r="G116" s="316" t="s">
-        <v>815</v>
       </c>
       <c r="H116" s="315"/>
       <c r="K116" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N116" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="117" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -37481,13 +37433,13 @@
       </c>
       <c r="B117" s="81"/>
       <c r="C117" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D117" s="315" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E117" s="315" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="F117" s="315" t="s">
         <v>81</v>
@@ -37497,10 +37449,10 @@
       </c>
       <c r="H117" s="315"/>
       <c r="K117" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N117" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="118" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -37509,26 +37461,26 @@
       </c>
       <c r="B118" s="81"/>
       <c r="C118" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D118" s="315" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E118" s="315" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F118" s="315" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G118" s="316" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H118" s="315"/>
       <c r="K118" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N118" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="119" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -37537,13 +37489,13 @@
       </c>
       <c r="B119" s="81"/>
       <c r="C119" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D119" s="315" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E119" s="315" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="F119" s="315" t="s">
         <v>81</v>
@@ -37556,10 +37508,10 @@
         <v>82</v>
       </c>
       <c r="K119" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N119" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="120" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -37568,29 +37520,29 @@
       </c>
       <c r="B120" s="81"/>
       <c r="C120" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D120" s="315" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E120" s="315" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F120" s="315" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="G120" s="316" t="s">
         <v>97</v>
       </c>
       <c r="H120" s="82"/>
       <c r="I120" s="315" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="K120" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N120" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="121" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -37599,27 +37551,27 @@
       </c>
       <c r="B121" s="81"/>
       <c r="C121" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D121" s="315" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E121" s="315" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="F121" s="315" t="s">
         <v>81</v>
       </c>
       <c r="G121" s="316" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H121" s="82"/>
       <c r="I121" s="315"/>
       <c r="K121" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N121" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="122" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -37628,13 +37580,13 @@
       </c>
       <c r="B122" s="81"/>
       <c r="C122" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D122" s="315" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E122" s="315" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="F122" s="315" t="s">
         <v>81</v>
@@ -37644,13 +37596,13 @@
       </c>
       <c r="H122" s="82"/>
       <c r="I122" s="316" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="K122" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N122" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="123" spans="1:249" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -37659,16 +37611,16 @@
       </c>
       <c r="B123" s="81"/>
       <c r="C123" s="17" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D123" s="315" t="s">
+        <v>827</v>
+      </c>
+      <c r="E123" s="315" t="s">
+        <v>828</v>
+      </c>
+      <c r="F123" s="315" t="s">
         <v>829</v>
-      </c>
-      <c r="E123" s="315" t="s">
-        <v>830</v>
-      </c>
-      <c r="F123" s="315" t="s">
-        <v>831</v>
       </c>
       <c r="G123" s="316" t="s">
         <v>122</v>
@@ -37676,10 +37628,10 @@
       <c r="H123" s="100"/>
       <c r="I123" s="315"/>
       <c r="K123" s="17" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N123" s="17" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
   </sheetData>
@@ -37835,13 +37787,13 @@
         <v>474</v>
       </c>
       <c r="P3" s="319" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q3" s="319" t="s">
+        <v>841</v>
+      </c>
+      <c r="R3" s="319" t="s">
         <v>842</v>
-      </c>
-      <c r="Q3" s="319" t="s">
-        <v>843</v>
-      </c>
-      <c r="R3" s="319" t="s">
-        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.15">
@@ -39858,7 +39810,7 @@
       </c>
       <c r="B66" s="75"/>
       <c r="C66" s="315" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D66" s="315" t="s">
         <v>80</v>
@@ -39869,7 +39821,7 @@
       <c r="F66" s="76"/>
       <c r="G66" s="17"/>
       <c r="H66" s="315" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I66" s="17"/>
       <c r="J66" s="17"/>
@@ -39877,12 +39829,12 @@
         <v>81</v>
       </c>
       <c r="L66" s="315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M66" s="17"/>
       <c r="N66" s="17"/>
       <c r="O66" s="82" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="P66" s="82"/>
       <c r="Q66" s="82"/>
@@ -39894,31 +39846,31 @@
       </c>
       <c r="B67" s="75"/>
       <c r="C67" s="315" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D67" s="315" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E67" s="316" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F67" s="76"/>
       <c r="G67" s="17"/>
       <c r="H67" s="315" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I67" s="17"/>
       <c r="J67" s="17"/>
       <c r="K67" s="315" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L67" s="315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M67" s="17"/>
       <c r="N67" s="17"/>
       <c r="O67" s="82" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="P67" s="82"/>
       <c r="Q67" s="82"/>
@@ -39930,10 +39882,10 @@
       </c>
       <c r="B68" s="75"/>
       <c r="C68" s="315" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D68" s="315" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E68" s="316" t="s">
         <v>82</v>
@@ -39941,7 +39893,7 @@
       <c r="F68" s="76"/>
       <c r="G68" s="17"/>
       <c r="H68" s="315" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I68" s="17"/>
       <c r="J68" s="17"/>
@@ -39949,7 +39901,7 @@
         <v>81</v>
       </c>
       <c r="L68" s="315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M68" s="17"/>
       <c r="N68" s="17"/>
@@ -39964,26 +39916,26 @@
       </c>
       <c r="B69" s="75"/>
       <c r="C69" s="315" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="D69" s="315" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E69" s="316" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F69" s="76"/>
       <c r="G69" s="17"/>
       <c r="H69" s="315" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I69" s="17"/>
       <c r="J69" s="17"/>
       <c r="K69" s="315" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L69" s="315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M69" s="17"/>
       <c r="N69" s="17"/>
@@ -39998,7 +39950,7 @@
       </c>
       <c r="B70" s="75"/>
       <c r="C70" s="316" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D70" s="315" t="s">
         <v>80</v>
@@ -40009,7 +39961,7 @@
       <c r="F70" s="76"/>
       <c r="G70" s="17"/>
       <c r="H70" s="315" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I70" s="17"/>
       <c r="J70" s="17"/>
@@ -40017,12 +39969,12 @@
         <v>81</v>
       </c>
       <c r="L70" s="315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M70" s="17"/>
       <c r="N70" s="17"/>
       <c r="O70" s="82" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="P70" s="82"/>
       <c r="Q70" s="82"/>
@@ -40034,31 +39986,31 @@
       </c>
       <c r="B71" s="75"/>
       <c r="C71" s="316" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D71" s="315" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E71" s="316" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F71" s="76"/>
       <c r="G71" s="17"/>
       <c r="H71" s="315" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="I71" s="17"/>
       <c r="J71" s="17"/>
       <c r="K71" s="315" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L71" s="315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M71" s="17"/>
       <c r="N71" s="17"/>
       <c r="O71" s="96" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="P71" s="82"/>
       <c r="Q71" s="82"/>
@@ -40070,10 +40022,10 @@
       </c>
       <c r="B72" s="75"/>
       <c r="C72" s="316" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D72" s="315" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E72" s="316" t="s">
         <v>82</v>
@@ -40081,7 +40033,7 @@
       <c r="F72" s="76"/>
       <c r="G72" s="17"/>
       <c r="H72" s="315" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="I72" s="17"/>
       <c r="J72" s="17"/>
@@ -40089,7 +40041,7 @@
         <v>81</v>
       </c>
       <c r="L72" s="315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M72" s="17"/>
       <c r="N72" s="17"/>
@@ -40104,26 +40056,26 @@
       </c>
       <c r="B73" s="75"/>
       <c r="C73" s="316" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D73" s="315" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="E73" s="316" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F73" s="76"/>
       <c r="G73" s="17"/>
       <c r="H73" s="315" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I73" s="17"/>
       <c r="J73" s="17"/>
       <c r="K73" s="315" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="L73" s="315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M73" s="17"/>
       <c r="N73" s="17"/>
@@ -40138,24 +40090,24 @@
       </c>
       <c r="B74" s="75"/>
       <c r="C74" s="316" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D74" s="315" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E74" s="315" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F74" s="279"/>
       <c r="G74" s="17"/>
       <c r="H74" s="315" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I74" s="17"/>
       <c r="J74" s="17"/>
       <c r="K74" s="315"/>
       <c r="L74" s="315" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="M74" s="17"/>
       <c r="N74" s="17"/>
